--- a/scratch/chap-03/assets/chap-03.xlsx
+++ b/scratch/chap-03/assets/chap-03.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents-Group\Pack_Thesis\phd-thesis\scratch\chap-03\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C462C117-C8B8-40C3-8106-EFF6B3D81CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED4178D-E2BD-4C06-B607-4EF8B06D4AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{B2B50FF7-D797-4413-B5AF-AE74DAB4FCE9}"/>
+    <workbookView xWindow="1501" yWindow="1730" windowWidth="17425" windowHeight="8955" activeTab="2" xr2:uid="{B2B50FF7-D797-4413-B5AF-AE74DAB4FCE9}"/>
   </bookViews>
   <sheets>
     <sheet name="MP2 timing" sheetId="1" r:id="rId1"/>
+    <sheet name="A Tensor (JK)" sheetId="2" r:id="rId2"/>
+    <sheet name="A Tensor (MO)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>RI-JK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -186,6 +188,126 @@
   </si>
   <si>
     <t>large-mem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3H8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PySCF/incore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PySCF/direct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6H14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J Symm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J NoSymm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBLIS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NumPy einsum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K NoSymm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K Symm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10H22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO/JK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JK integral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO to MO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO/directly</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>approx MO ERI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summation (Numba)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summation (NumPy)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contraction (1 dim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MO/decomposed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Process</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contraction (10 dim)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_aipq (3 terms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_aipq (2 terms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_pqrs (2 terms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A_aibj (3 terms)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -193,6 +315,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -238,6 +363,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -556,7 +684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A3CA1E-BFC1-47E8-B42B-5BC0EADBB2C7}">
   <dimension ref="A3:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2898,4 +3026,396 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2226B074-8DF6-4356-9433-50018516A9E6}">
+  <dimension ref="B3:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.95" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="12.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E5">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="F5">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="G6">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E7">
+        <v>1.7629999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E8">
+        <v>1.8149999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9">
+        <v>0.112</v>
+      </c>
+      <c r="E9">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>3.4079999999999999</v>
+      </c>
+      <c r="G10">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>1.1279999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E12">
+        <v>1.706</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{162B89FF-99E0-4C9C-B094-7EDB9A89E0B0}">
+  <dimension ref="C4:L13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.95" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1.0182899999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <f xml:space="preserve"> 116.4306 / 20</f>
+        <v>5.8215300000000001</v>
+      </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1.0182899999999999</v>
+      </c>
+      <c r="L5" s="3">
+        <f xml:space="preserve"> 116.4306 / 20</f>
+        <v>5.8215300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="3">
+        <f xml:space="preserve"> 15.1747 / 20</f>
+        <v>0.75873499999999994</v>
+      </c>
+      <c r="F6" s="3">
+        <f xml:space="preserve"> 98.5803 / 20</f>
+        <v>4.9290149999999997</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="3">
+        <f xml:space="preserve"> 15.1747 / 20</f>
+        <v>0.75873499999999994</v>
+      </c>
+      <c r="L6" s="3">
+        <f xml:space="preserve"> 98.5803 / 20</f>
+        <v>4.9290149999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3">
+        <f xml:space="preserve"> 27.6048 / 20</f>
+        <v>1.3802400000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <f xml:space="preserve"> 276.8269 / 20</f>
+        <v>13.841345</v>
+      </c>
+      <c r="I7" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K7" s="3">
+        <f xml:space="preserve"> 1.9999 / 20</f>
+        <v>9.9995000000000001E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f xml:space="preserve"> 8.3991 / 20</f>
+        <v>0.41995500000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="3">
+        <f xml:space="preserve"> 2.6779 / 20</f>
+        <v>0.13389500000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <f xml:space="preserve"> 17.8615 / 20</f>
+        <v>0.89307499999999995</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3">
+        <f xml:space="preserve"> 9.7408 / 20</f>
+        <v>0.48704000000000003</v>
+      </c>
+      <c r="L8" s="3">
+        <f xml:space="preserve"> 35.0454 / 20</f>
+        <v>1.75227</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3.4813999999999998</v>
+      </c>
+      <c r="F9" s="3">
+        <v>24.531199999999998</v>
+      </c>
+      <c r="J9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K9" s="3">
+        <f xml:space="preserve"> 5.2468 / 20</f>
+        <v>0.26234000000000002</v>
+      </c>
+      <c r="L9" s="3">
+        <f xml:space="preserve"> 18.4527 / 20</f>
+        <v>0.92263499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3">
+        <f xml:space="preserve"> 0.5664 / 20</f>
+        <v>2.8320000000000001E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <f xml:space="preserve"> 3.2309 / 20</f>
+        <v>0.16154499999999999</v>
+      </c>
+      <c r="J10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="3">
+        <f xml:space="preserve"> 29.9434 / 20</f>
+        <v>1.4971700000000001</v>
+      </c>
+      <c r="L10" s="3">
+        <f xml:space="preserve"> 161.3621 / 20</f>
+        <v>8.0681049999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="3">
+        <f xml:space="preserve"> 1.2906 / 20</f>
+        <v>6.4530000000000004E-2</v>
+      </c>
+      <c r="F11" s="3">
+        <f xml:space="preserve"> 5.9613 / 20</f>
+        <v>0.29806499999999997</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3">
+        <f xml:space="preserve"> 1.9999 / 20</f>
+        <v>9.9995000000000001E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <f xml:space="preserve"> 8.3991 / 20</f>
+        <v>0.41995500000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="3">
+        <f xml:space="preserve"> 6.5685 / 20</f>
+        <v>0.32842500000000002</v>
+      </c>
+      <c r="F13" s="3">
+        <f xml:space="preserve"> 27.7624 / 20</f>
+        <v>1.38812</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>